--- a/data/trans_orig/MCS12_SP_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D1B262-E925-4F1A-8AE5-1395250B7FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0870BAA2-EA0E-415C-994C-5D76AB26889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F14BE7DC-39A0-43AA-BEA3-7DBFF496F24B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{849BECAD-D9AE-4CAD-BDAC-F7948D4AB68E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="555">
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,1477 +68,1642 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>53,56%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>46,85%</t>
   </si>
   <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
   </si>
   <si>
     <t>64,6%</t>
   </si>
   <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>49,58%</t>
   </si>
   <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>57,71%</t>
   </si>
   <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>48,12%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +2115,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55EC146-0E18-403D-9AB1-158C3FEB3BD5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF211AD-4B9B-4151-9661-1F2B7817C8E1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2068,10 +2233,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="7">
-        <v>152488</v>
+        <v>159550</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2083,10 +2248,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I4" s="7">
-        <v>196569</v>
+        <v>200602</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2098,10 +2263,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="N4" s="7">
-        <v>349057</v>
+        <v>360152</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2119,10 +2284,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D5" s="7">
-        <v>341576</v>
+        <v>334514</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2134,10 +2299,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I5" s="7">
-        <v>270920</v>
+        <v>266887</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2149,10 +2314,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="N5" s="7">
-        <v>612496</v>
+        <v>601401</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2223,10 +2388,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D7" s="7">
-        <v>248965</v>
+        <v>253359</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2238,10 +2403,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I7" s="7">
-        <v>294394</v>
+        <v>304052</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2253,10 +2418,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="N7" s="7">
-        <v>543358</v>
+        <v>557411</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2274,10 +2439,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D8" s="7">
-        <v>486524</v>
+        <v>482130</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2289,10 +2454,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="I8" s="7">
-        <v>331100</v>
+        <v>321442</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2304,10 +2469,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="N8" s="7">
-        <v>817624</v>
+        <v>803571</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2378,10 +2543,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D10" s="7">
-        <v>274212</v>
+        <v>278847</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2393,10 +2558,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I10" s="7">
-        <v>396057</v>
+        <v>401186</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2408,10 +2573,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="N10" s="7">
-        <v>670269</v>
+        <v>680033</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2429,10 +2594,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D11" s="7">
-        <v>364456</v>
+        <v>359821</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2444,10 +2609,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I11" s="7">
-        <v>293687</v>
+        <v>288558</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2459,10 +2624,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="N11" s="7">
-        <v>658143</v>
+        <v>648379</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2533,10 +2698,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D13" s="7">
-        <v>228848</v>
+        <v>234910</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2548,10 +2713,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="I13" s="7">
-        <v>309621</v>
+        <v>322125</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2563,10 +2728,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="N13" s="7">
-        <v>538469</v>
+        <v>557035</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2584,10 +2749,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D14" s="7">
-        <v>290299</v>
+        <v>284237</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2599,10 +2764,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I14" s="7">
-        <v>206021</v>
+        <v>193517</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2614,10 +2779,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="N14" s="7">
-        <v>496320</v>
+        <v>477754</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2688,10 +2853,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D16" s="7">
-        <v>211773</v>
+        <v>216295</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2703,10 +2868,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I16" s="7">
-        <v>237189</v>
+        <v>238203</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2718,10 +2883,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="N16" s="7">
-        <v>448961</v>
+        <v>454498</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2739,10 +2904,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D17" s="7">
-        <v>174937</v>
+        <v>170415</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2754,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I17" s="7">
-        <v>166797</v>
+        <v>165783</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2769,10 +2934,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N17" s="7">
-        <v>341735</v>
+        <v>336198</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2843,10 +3008,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="D19" s="7">
-        <v>273152</v>
+        <v>158429</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2858,10 +3023,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>354</v>
+        <v>210</v>
       </c>
       <c r="I19" s="7">
-        <v>362802</v>
+        <v>195915</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2873,10 +3038,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>637</v>
+        <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>635954</v>
+        <v>354344</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2894,10 +3059,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="D20" s="7">
-        <v>229314</v>
+        <v>134154</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2906,37 +3071,37 @@
         <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>307</v>
+        <v>161</v>
       </c>
       <c r="I20" s="7">
-        <v>314040</v>
+        <v>147019</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>547</v>
+        <v>300</v>
       </c>
       <c r="N20" s="7">
-        <v>543354</v>
+        <v>281173</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2960,10 +3125,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2975,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2992,55 +3157,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1356</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>1389438</v>
+        <v>114723</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1749</v>
+        <v>146</v>
       </c>
       <c r="I22" s="7">
-        <v>1796632</v>
+        <v>168814</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>3105</v>
+        <v>265</v>
       </c>
       <c r="N22" s="7">
-        <v>3186069</v>
+        <v>283537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,49 +3214,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1858</v>
+        <v>101</v>
       </c>
       <c r="D23" s="7">
-        <v>1887106</v>
+        <v>95160</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1548</v>
+        <v>144</v>
       </c>
       <c r="I23" s="7">
-        <v>1582566</v>
+        <v>165094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>3406</v>
+        <v>245</v>
       </c>
       <c r="N23" s="7">
-        <v>3469671</v>
+        <v>260254</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,63 +3265,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1382</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1416113</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1782</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1830898</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3164</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3247011</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1832</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1860430</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1515</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1548299</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3347</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3408730</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3169,8 +3490,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732054DC-CEB1-4A0B-904A-25BDB7CE36E2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9DAC19-CFC1-431B-A94D-C2B2F8DE9DF3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3186,7 +3507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,49 +3608,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D4" s="7">
-        <v>153659</v>
+        <v>160253</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="I4" s="7">
-        <v>192439</v>
+        <v>210948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="N4" s="7">
-        <v>346098</v>
+        <v>371201</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,49 +3659,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D5" s="7">
-        <v>300487</v>
+        <v>293893</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>237791</v>
+        <v>219282</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="N5" s="7">
-        <v>538278</v>
+        <v>513175</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,49 +3763,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="D7" s="7">
-        <v>286490</v>
+        <v>304642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="I7" s="7">
-        <v>314861</v>
+        <v>339228</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
-        <v>569</v>
+        <v>610</v>
       </c>
       <c r="N7" s="7">
-        <v>601352</v>
+        <v>643871</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,49 +3814,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D8" s="7">
-        <v>400597</v>
+        <v>382445</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="I8" s="7">
-        <v>295394</v>
+        <v>271027</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>669</v>
+        <v>628</v>
       </c>
       <c r="N8" s="7">
-        <v>695990</v>
+        <v>653471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,49 +3918,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>324406</v>
+        <v>346725</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="I10" s="7">
-        <v>404007</v>
+        <v>453335</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>695</v>
+        <v>760</v>
       </c>
       <c r="N10" s="7">
-        <v>728413</v>
+        <v>800059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,49 +3969,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>357457</v>
+        <v>335138</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="I11" s="7">
-        <v>306843</v>
+        <v>257515</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
-        <v>623</v>
+        <v>558</v>
       </c>
       <c r="N11" s="7">
-        <v>664299</v>
+        <v>592653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,49 +4073,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="D13" s="7">
-        <v>304717</v>
+        <v>331367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="I13" s="7">
-        <v>360730</v>
+        <v>394632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="N13" s="7">
-        <v>665447</v>
+        <v>725999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,49 +4124,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="D14" s="7">
-        <v>309900</v>
+        <v>283250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="I14" s="7">
-        <v>255469</v>
+        <v>221567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="N14" s="7">
-        <v>565369</v>
+        <v>504817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,49 +4228,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D16" s="7">
-        <v>221501</v>
+        <v>236263</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="I16" s="7">
-        <v>297783</v>
+        <v>308224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="N16" s="7">
-        <v>519284</v>
+        <v>544488</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,49 +4279,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D17" s="7">
-        <v>207928</v>
+        <v>193166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I17" s="7">
-        <v>150017</v>
+        <v>139576</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="N17" s="7">
-        <v>357945</v>
+        <v>332741</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4383,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7">
-        <v>288289</v>
+        <v>156866</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>457</v>
+        <v>225</v>
       </c>
       <c r="I19" s="7">
-        <v>486420</v>
+        <v>229643</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
-        <v>717</v>
+        <v>369</v>
       </c>
       <c r="N19" s="7">
-        <v>774709</v>
+        <v>386509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,49 +4434,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>271348</v>
+        <v>152920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="I20" s="7">
-        <v>256555</v>
+        <v>124353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
-        <v>481</v>
+        <v>257</v>
       </c>
       <c r="N20" s="7">
-        <v>527903</v>
+        <v>277273</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4485,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4179,10 +4500,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4194,10 +4515,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4211,55 +4532,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1473</v>
+        <v>127</v>
       </c>
       <c r="D22" s="7">
-        <v>1579063</v>
+        <v>143077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>1905</v>
+        <v>239</v>
       </c>
       <c r="I22" s="7">
-        <v>2056241</v>
+        <v>265313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>3378</v>
+        <v>366</v>
       </c>
       <c r="N22" s="7">
-        <v>3635304</v>
+        <v>408389</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,49 +4589,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1736</v>
+        <v>95</v>
       </c>
       <c r="D23" s="7">
-        <v>1847716</v>
+        <v>106774</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>1393</v>
+        <v>111</v>
       </c>
       <c r="I23" s="7">
-        <v>1502068</v>
+        <v>123666</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>3129</v>
+        <v>206</v>
       </c>
       <c r="N23" s="7">
-        <v>3349784</v>
+        <v>230441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,63 +4640,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1569</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1679193</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2038</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2201324</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3607</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3880516</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1640</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1747586</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1260</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1356985</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2900</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3104572</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4388,8 +4865,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA2E07A-2A46-4B6B-B2F2-8D1BC1726DA3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D133DA27-18FE-49A4-830C-B3692DBE50BA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4405,7 +4882,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,49 +4983,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D4" s="7">
-        <v>138177</v>
+        <v>140581</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I4" s="7">
-        <v>169247</v>
+        <v>174036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N4" s="7">
-        <v>307424</v>
+        <v>314617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,49 +5034,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D5" s="7">
-        <v>281286</v>
+        <v>278882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>226508</v>
+        <v>221719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="N5" s="7">
-        <v>507794</v>
+        <v>500601</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,49 +5138,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D7" s="7">
-        <v>264742</v>
+        <v>271021</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="I7" s="7">
-        <v>262512</v>
+        <v>277381</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="N7" s="7">
-        <v>527254</v>
+        <v>548402</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,49 +5189,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>325754</v>
+        <v>319475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="I8" s="7">
-        <v>301032</v>
+        <v>286163</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="N8" s="7">
-        <v>626786</v>
+        <v>605638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,49 +5293,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D10" s="7">
-        <v>313414</v>
+        <v>321857</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="I10" s="7">
-        <v>318293</v>
+        <v>328003</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="N10" s="7">
-        <v>631707</v>
+        <v>649860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,49 +5344,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D11" s="7">
-        <v>355683</v>
+        <v>347240</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>343093</v>
+        <v>333383</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="N11" s="7">
-        <v>698776</v>
+        <v>680623</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,49 +5448,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D13" s="7">
-        <v>333152</v>
+        <v>344176</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
+        <v>368</v>
+      </c>
+      <c r="I13" s="7">
+        <v>393186</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="I13" s="7">
-        <v>377550</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="N13" s="7">
-        <v>710702</v>
+        <v>737362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,49 +5499,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D14" s="7">
-        <v>312896</v>
+        <v>301872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="I14" s="7">
-        <v>271527</v>
+        <v>255891</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="N14" s="7">
-        <v>584423</v>
+        <v>557763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,49 +5603,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D16" s="7">
-        <v>224878</v>
+        <v>247580</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="H16" s="7">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="I16" s="7">
-        <v>298760</v>
+        <v>307416</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="N16" s="7">
-        <v>523638</v>
+        <v>554996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,49 +5654,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D17" s="7">
-        <v>253040</v>
+        <v>230338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I17" s="7">
-        <v>198089</v>
+        <v>189433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="N17" s="7">
-        <v>451129</v>
+        <v>419771</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,49 +5758,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="D19" s="7">
-        <v>293774</v>
+        <v>169614</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
+        <v>210</v>
+      </c>
+      <c r="I19" s="7">
+        <v>221838</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M19" s="7">
+        <v>375</v>
+      </c>
+      <c r="N19" s="7">
+        <v>391452</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="I19" s="7">
-        <v>454782</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M19" s="7">
-        <v>698</v>
-      </c>
-      <c r="N19" s="7">
-        <v>748556</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,49 +5809,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>314</v>
+        <v>160</v>
       </c>
       <c r="D20" s="7">
-        <v>297554</v>
+        <v>164716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="I20" s="7">
-        <v>323149</v>
+        <v>155924</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
-        <v>584</v>
+        <v>304</v>
       </c>
       <c r="N20" s="7">
-        <v>620703</v>
+        <v>320640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5860,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5398,10 +5875,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5413,10 +5890,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5430,55 +5907,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1501</v>
+        <v>164</v>
       </c>
       <c r="D22" s="7">
-        <v>1568138</v>
+        <v>139602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
-        <v>1769</v>
+        <v>183</v>
       </c>
       <c r="I22" s="7">
-        <v>1881144</v>
+        <v>241997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
-        <v>3270</v>
+        <v>347</v>
       </c>
       <c r="N22" s="7">
-        <v>3449282</v>
+        <v>381599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +5964,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1730</v>
+        <v>138</v>
       </c>
       <c r="D23" s="7">
-        <v>1826212</v>
+        <v>117396</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
-        <v>1569</v>
+        <v>118</v>
       </c>
       <c r="I23" s="7">
-        <v>1663398</v>
+        <v>158172</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
+        <v>407</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="M23" s="7">
-        <v>3299</v>
+        <v>256</v>
       </c>
       <c r="N23" s="7">
-        <v>3489610</v>
+        <v>275568</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,63 +6015,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1562</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1634431</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1829</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1943857</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3391</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3578287</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1669</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1759919</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1509</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1600685</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3178</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3360605</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5607,8 +6240,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136BD698-071D-4F42-B9E7-C05225698B87}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DCBE45-DFD7-42BF-B8F0-CFD293D29C02}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5624,7 +6257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,49 +6358,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7">
-        <v>94639</v>
+        <v>103184</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I4" s="7">
-        <v>128670</v>
+        <v>122000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="M4" s="7">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="N4" s="7">
-        <v>223309</v>
+        <v>225184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,49 +6409,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7">
-        <v>283040</v>
+        <v>296803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="H5" s="7">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I5" s="7">
-        <v>224598</v>
+        <v>189617</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="M5" s="7">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N5" s="7">
-        <v>507638</v>
+        <v>486420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +6463,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5845,7 +6478,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>353268</v>
+        <v>311617</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5860,7 +6493,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>730947</v>
+        <v>711604</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5880,49 +6513,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D7" s="7">
-        <v>136748</v>
+        <v>143406</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="H7" s="7">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I7" s="7">
-        <v>198587</v>
+        <v>244013</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="M7" s="7">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="N7" s="7">
-        <v>335335</v>
+        <v>387419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,49 +6564,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D8" s="7">
-        <v>291648</v>
+        <v>280141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="H8" s="7">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="I8" s="7">
-        <v>299397</v>
+        <v>266951</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="M8" s="7">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="N8" s="7">
-        <v>591045</v>
+        <v>547092</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +6618,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6000,7 +6633,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497984</v>
+        <v>510964</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6015,7 +6648,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>926380</v>
+        <v>934511</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6035,49 +6668,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D10" s="7">
-        <v>190333</v>
+        <v>193411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="I10" s="7">
-        <v>238810</v>
+        <v>238605</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="N10" s="7">
-        <v>429143</v>
+        <v>432016</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,49 +6719,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D11" s="7">
-        <v>365947</v>
+        <v>341958</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="H11" s="7">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="I11" s="7">
-        <v>343820</v>
+        <v>303153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>432</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>433</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
-        <v>832</v>
+        <v>792</v>
       </c>
       <c r="N11" s="7">
-        <v>709766</v>
+        <v>645112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6773,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556280</v>
+        <v>535369</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6155,7 +6788,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582630</v>
+        <v>541758</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6170,7 +6803,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138909</v>
+        <v>1077128</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6190,49 +6823,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D13" s="7">
-        <v>278305</v>
+        <v>283870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="I13" s="7">
-        <v>360613</v>
+        <v>353174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>315</v>
+        <v>481</v>
       </c>
       <c r="M13" s="7">
-        <v>828</v>
+        <v>882</v>
       </c>
       <c r="N13" s="7">
-        <v>638918</v>
+        <v>637044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,49 +6874,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D14" s="7">
-        <v>443521</v>
+        <v>601821</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="H14" s="7">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="I14" s="7">
-        <v>382840</v>
+        <v>356138</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7">
-        <v>970</v>
+        <v>916</v>
       </c>
       <c r="N14" s="7">
-        <v>826362</v>
+        <v>957959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>491</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6928,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>721826</v>
+        <v>885691</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6310,7 +6943,7 @@
         <v>1135</v>
       </c>
       <c r="I15" s="7">
-        <v>743453</v>
+        <v>709312</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6325,7 +6958,7 @@
         <v>1798</v>
       </c>
       <c r="N15" s="7">
-        <v>1465280</v>
+        <v>1595003</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6345,49 +6978,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="D16" s="7">
-        <v>273773</v>
+        <v>273344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="I16" s="7">
-        <v>327249</v>
+        <v>310590</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="M16" s="7">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="N16" s="7">
-        <v>601022</v>
+        <v>583934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,49 +7029,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D17" s="7">
-        <v>319691</v>
+        <v>281593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="H17" s="7">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="I17" s="7">
-        <v>267331</v>
+        <v>235011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="N17" s="7">
-        <v>587022</v>
+        <v>516604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +7083,7 @@
         <v>658</v>
       </c>
       <c r="D18" s="7">
-        <v>593464</v>
+        <v>554937</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6465,7 +7098,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>594580</v>
+        <v>545601</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6480,7 +7113,7 @@
         <v>1656</v>
       </c>
       <c r="N18" s="7">
-        <v>1188044</v>
+        <v>1100538</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6500,49 +7133,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>514</v>
+        <v>280</v>
       </c>
       <c r="D19" s="7">
-        <v>347011</v>
+        <v>178299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>339</v>
+        <v>503</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
-        <v>988</v>
+        <v>455</v>
       </c>
       <c r="I19" s="7">
-        <v>644525</v>
+        <v>425624</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="M19" s="7">
-        <v>1502</v>
+        <v>735</v>
       </c>
       <c r="N19" s="7">
-        <v>991536</v>
+        <v>603923</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,49 +7184,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>504</v>
+        <v>284</v>
       </c>
       <c r="D20" s="7">
-        <v>343507</v>
+        <v>185462</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>348</v>
+        <v>511</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="H20" s="7">
-        <v>700</v>
+        <v>369</v>
       </c>
       <c r="I20" s="7">
-        <v>371132</v>
+        <v>181019</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="M20" s="7">
-        <v>1204</v>
+        <v>653</v>
       </c>
       <c r="N20" s="7">
-        <v>714638</v>
+        <v>366482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,10 +7235,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1018</v>
+        <v>564</v>
       </c>
       <c r="D21" s="7">
-        <v>690518</v>
+        <v>363761</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6617,10 +7250,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1688</v>
+        <v>824</v>
       </c>
       <c r="I21" s="7">
-        <v>1015657</v>
+        <v>606643</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6632,10 +7265,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2706</v>
+        <v>1388</v>
       </c>
       <c r="N21" s="7">
-        <v>1706174</v>
+        <v>970405</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6649,55 +7282,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1435</v>
+        <v>257</v>
       </c>
       <c r="D22" s="7">
-        <v>1320809</v>
+        <v>155029</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="H22" s="7">
-        <v>2715</v>
+        <v>555</v>
       </c>
       <c r="I22" s="7">
-        <v>1898454</v>
+        <v>266424</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>523</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>524</v>
       </c>
       <c r="M22" s="7">
-        <v>4150</v>
+        <v>812</v>
       </c>
       <c r="N22" s="7">
-        <v>3219263</v>
+        <v>421453</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,49 +7339,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1923</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7">
-        <v>2047353</v>
+        <v>125389</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="H23" s="7">
-        <v>2616</v>
+        <v>309</v>
       </c>
       <c r="I23" s="7">
-        <v>1889118</v>
+        <v>151284</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>345</v>
+        <v>532</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>533</v>
       </c>
       <c r="M23" s="7">
-        <v>4539</v>
+        <v>506</v>
       </c>
       <c r="N23" s="7">
-        <v>3936471</v>
+        <v>276673</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,63 +7390,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>454</v>
+      </c>
+      <c r="D24" s="7">
+        <v>280418</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>864</v>
+      </c>
+      <c r="I24" s="7">
+        <v>417708</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1318</v>
+      </c>
+      <c r="N24" s="7">
+        <v>698126</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1520</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1330544</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2833</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1960429</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4353</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3290973</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1838</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2113167</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2498</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1683174</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4336</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3796341</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3358</v>
       </c>
-      <c r="D24" s="7">
-        <v>3368162</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3443711</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5331</v>
       </c>
-      <c r="I24" s="7">
-        <v>3787572</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3643603</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8689</v>
       </c>
-      <c r="N24" s="7">
-        <v>7155734</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7087314</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
